--- a/数据.xlsx
+++ b/数据.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
-    <t>KNN</t>
+    <t>InfoGianAP选择+K近邻法</t>
   </si>
   <si>
     <t>我们的方法</t>
@@ -27,16 +27,31 @@
   <si>
     <t>定位精度</t>
   </si>
+  <si>
+    <t>簇5</t>
+  </si>
+  <si>
+    <t>簇4</t>
+  </si>
+  <si>
+    <t>簇3</t>
+  </si>
+  <si>
+    <t>簇2</t>
+  </si>
+  <si>
+    <t>簇1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -44,6 +59,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -56,7 +78,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -70,15 +92,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,23 +122,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,31 +152,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,9 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,7 +215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,13 +227,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +251,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,31 +287,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,91 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,15 +433,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -444,9 +450,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,11 +500,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,10 +514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +526,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -699,6 +714,2945 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$AG$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$AG$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="217510147"/>
+        <c:axId val="809398764"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="217510147"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809398764"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="809398764"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217510147"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$AG$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$AG$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="480838065"/>
+        <c:axId val="188911316"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="480838065"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188911316"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="188911316"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480838065"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$U$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$U$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-67.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-67.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-67.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-67.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-67.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-67.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-67.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-67.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-68.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-69.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-69.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-68.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-69.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-68.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-69.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-69.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="269625299"/>
+        <c:axId val="563315377"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="269625299"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563315377"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="563315377"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269625299"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>465455</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="23161625" y="635"/>
+        <a:ext cx="6107430" cy="5494655"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>559435</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6502400" y="1776095"/>
+        <a:ext cx="3658235" cy="3532505"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5130800" y="1003935"/>
+        <a:ext cx="7153275" cy="4304665"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,10 +3914,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:V28"/>
+  <dimension ref="A2:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -973,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1988</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -981,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>169</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -1181,7 +4135,10 @@
         <v>0.774</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
       <c r="B11">
         <v>0.32</v>
       </c>
@@ -1219,7 +4176,10 @@
         <v>0.772</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
       <c r="B12">
         <v>0.61</v>
       </c>
@@ -1239,7 +4199,10 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
       <c r="B13">
         <v>0.43</v>
       </c>
@@ -1265,7 +4228,10 @@
         <v>0.846</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
       <c r="B14">
         <v>0.3</v>
       </c>
@@ -1297,7 +4263,10 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
       <c r="B15">
         <v>0.49</v>
       </c>
@@ -1458,8 +4427,317 @@
         <v>0.911</v>
       </c>
     </row>
+    <row r="33" spans="3:33">
+      <c r="C33">
+        <v>-85</v>
+      </c>
+      <c r="D33">
+        <v>-84</v>
+      </c>
+      <c r="E33">
+        <v>-83</v>
+      </c>
+      <c r="F33">
+        <v>-82</v>
+      </c>
+      <c r="G33">
+        <v>-81</v>
+      </c>
+      <c r="H33">
+        <v>-80</v>
+      </c>
+      <c r="I33">
+        <v>-79</v>
+      </c>
+      <c r="J33">
+        <v>-78</v>
+      </c>
+      <c r="K33">
+        <v>-77</v>
+      </c>
+      <c r="L33">
+        <v>-76</v>
+      </c>
+      <c r="M33">
+        <v>-75</v>
+      </c>
+      <c r="N33">
+        <v>-74</v>
+      </c>
+      <c r="O33">
+        <v>-73</v>
+      </c>
+      <c r="P33">
+        <v>-72</v>
+      </c>
+      <c r="Q33">
+        <v>-71</v>
+      </c>
+      <c r="R33">
+        <v>-70</v>
+      </c>
+      <c r="S33">
+        <v>-69</v>
+      </c>
+      <c r="T33">
+        <v>-68</v>
+      </c>
+      <c r="U33">
+        <v>-67</v>
+      </c>
+      <c r="V33">
+        <v>-66</v>
+      </c>
+      <c r="W33">
+        <v>-65</v>
+      </c>
+      <c r="X33">
+        <v>-64</v>
+      </c>
+      <c r="Y33">
+        <v>-63</v>
+      </c>
+      <c r="Z33">
+        <v>-62</v>
+      </c>
+      <c r="AA33">
+        <v>-61</v>
+      </c>
+      <c r="AB33">
+        <v>-60</v>
+      </c>
+      <c r="AC33">
+        <v>-59</v>
+      </c>
+      <c r="AD33">
+        <v>-58</v>
+      </c>
+      <c r="AE33">
+        <v>-57</v>
+      </c>
+      <c r="AF33">
+        <v>-56</v>
+      </c>
+      <c r="AG33">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="34" spans="3:33">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0.03</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0.76</v>
+      </c>
+      <c r="W34">
+        <v>0.12</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0.09</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0.007</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>21</v>
+      </c>
+      <c r="K37">
+        <v>25</v>
+      </c>
+      <c r="L37">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>33</v>
+      </c>
+      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>42</v>
+      </c>
+      <c r="Q37">
+        <v>53</v>
+      </c>
+      <c r="R37">
+        <v>64</v>
+      </c>
+      <c r="S37">
+        <v>70</v>
+      </c>
+      <c r="T37">
+        <v>80</v>
+      </c>
+      <c r="U37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21">
+      <c r="C38">
+        <v>-68</v>
+      </c>
+      <c r="D38">
+        <v>-67.8</v>
+      </c>
+      <c r="E38">
+        <v>-67.6</v>
+      </c>
+      <c r="F38">
+        <v>-67.5</v>
+      </c>
+      <c r="G38">
+        <v>-67.46</v>
+      </c>
+      <c r="H38">
+        <v>-67.43</v>
+      </c>
+      <c r="I38">
+        <v>-67.45</v>
+      </c>
+      <c r="J38">
+        <v>-67.7</v>
+      </c>
+      <c r="K38">
+        <v>-67.9</v>
+      </c>
+      <c r="L38">
+        <v>-68.5</v>
+      </c>
+      <c r="M38">
+        <v>-69</v>
+      </c>
+      <c r="N38">
+        <v>-69.2</v>
+      </c>
+      <c r="O38">
+        <v>-69.3</v>
+      </c>
+      <c r="P38">
+        <v>-68.4</v>
+      </c>
+      <c r="Q38">
+        <v>-69.2</v>
+      </c>
+      <c r="R38">
+        <v>-68.7</v>
+      </c>
+      <c r="S38">
+        <v>-69</v>
+      </c>
+      <c r="T38">
+        <v>-69.3</v>
+      </c>
+      <c r="U38">
+        <v>-69.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据.xlsx
+++ b/数据.xlsx
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,7 +63,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,13 +147,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -93,15 +155,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,62 +185,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,21 +205,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +406,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -419,16 +434,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,31 +484,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,10 +514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,133 +526,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -713,6 +713,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1144,859 +1149,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$33:$AG$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-85</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-83</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-82</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-79</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-78</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-77</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-76</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-74</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-73</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-72</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-71</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-69</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-68</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-67</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-66</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-65</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-64</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-62</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-61</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$34:$AG$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="480838065"/>
-        <c:axId val="188911316"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="480838065"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="188911316"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="5"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="188911316"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="480838065"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smooth"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$37:$U$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$38:$U$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-67.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-67.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-67.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-67.46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-67.43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-67.45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-67.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-67.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-68.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-69</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-69.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-69.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-68.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-69.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-68.7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-69</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-69.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-69.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="269625299"/>
-        <c:axId val="563315377"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="269625299"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563315377"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="563315377"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="269625299"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2541,1025 +1694,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3587,66 +1721,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>61595</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>559435</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="图表 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="6502400" y="1776095"/>
-        <a:ext cx="3658235" cy="3532505"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>625475</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="图表 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5130800" y="1003935"/>
-        <a:ext cx="7153275" cy="4304665"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3917,7 +1991,7 @@
   <dimension ref="A2:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+      <selection activeCell="A15" sqref="A15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
